--- a/Data_Statistics_UnitInfo.xlsx
+++ b/Data_Statistics_UnitInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2427AB-4C56-42D4-BE3D-381FDDBDB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4FF902-9004-43B0-9A8F-92EBA23D5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,190 +27,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
-    <t>NK_RiceYield</t>
-  </si>
-  <si>
     <t>t/ha</t>
   </si>
   <si>
-    <t>SK_RiceYield</t>
-  </si>
-  <si>
-    <t>NK_LandAreaEquippedForIrrigation</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t>SK_LandAreaEquippedForIrrigation</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NK_IrrigatedAgricultureWaterUseEfficiency</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK_IrrigatedAgricultureWaterUseEfficiency</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>NK_TotalDamCapacity</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK_TotalDamCapacity</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NK_CoalProduction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK_CoalProduction</t>
-  </si>
-  <si>
-    <t>NK_CoalImport</t>
-  </si>
-  <si>
-    <t>SK_CoalImport</t>
-  </si>
-  <si>
-    <t>NK_CrudeOilImport</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK_CrudeOilImport</t>
-  </si>
-  <si>
-    <t>NK_ElectricityGeneration</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK_ElectricityGeneration</t>
-  </si>
-  <si>
-    <t>NK_RiceImport</t>
-  </si>
-  <si>
-    <t>NK_WheatImport</t>
-  </si>
-  <si>
-    <t>NK_SoyImport</t>
-  </si>
-  <si>
-    <t>NK_MaizeImport</t>
-  </si>
-  <si>
-    <t>NK_imports</t>
-  </si>
-  <si>
-    <t>SK_RiceImport</t>
-  </si>
-  <si>
-    <t>SK_WheatImport</t>
-  </si>
-  <si>
-    <t>SK_SoyImport</t>
-  </si>
-  <si>
-    <t>SK_MaizeImport</t>
-  </si>
-  <si>
-    <t>SK_imports</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_Rice</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_other_cereals</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_Non_Cereals</t>
-  </si>
-  <si>
-    <t>NK_PrevalenceOfUndernourishment</t>
-  </si>
-  <si>
-    <t>SK_PrevalenceOfUndernourishment</t>
-  </si>
-  <si>
-    <t>NK_ProductionN</t>
-  </si>
-  <si>
-    <t>NK_ProductionP205</t>
-  </si>
-  <si>
-    <t>NK_ProductionK20</t>
-  </si>
-  <si>
-    <t>NK_UsePerAreaOfCroplandNutrientNitrogenN</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>kg/ha</t>
   </si>
   <si>
-    <t>NK_UsePerAreaOfCroplandNutrientP2O5</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NK_UsePerAreaOfCroplandNutrientK2O</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NK_CokeImport</t>
-  </si>
-  <si>
     <t>Mst</t>
   </si>
   <si>
-    <t>SK_CokeImport</t>
-  </si>
-  <si>
-    <t>NK_ElectricityConsumption</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>NK_PrimaryEnergyConsumption</t>
-  </si>
-  <si>
     <t>TWh</t>
   </si>
   <si>
-    <t>NK_EnergySupplyCoal</t>
-  </si>
-  <si>
-    <t>NK_EnergySupplyHydro</t>
-  </si>
-  <si>
-    <t>NK_EnergySupplyBiofuelsAndWaste</t>
-  </si>
-  <si>
-    <t>NK_EnergySupplyOil</t>
-  </si>
-  <si>
-    <t>NK_EnergySupplyWindAndSolar</t>
-  </si>
-  <si>
-    <t>NK_ElectricitySupplyCoal</t>
-  </si>
-  <si>
-    <t>NK_ElectricitySupplyOil</t>
-  </si>
-  <si>
-    <t>NK_ElectricitySupplyHydro</t>
-  </si>
-  <si>
-    <t>NK_ElectricitySupplySolar</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -422,13 +256,166 @@
     </r>
   </si>
   <si>
-    <t>NK_WaterConsumptionCoefficient</t>
-  </si>
-  <si>
-    <t>SK_WaterConsumptionCoefficient</t>
-  </si>
-  <si>
-    <t>NK_FoodReceived_Wheat</t>
+    <t>ROK_RiceYield</t>
+  </si>
+  <si>
+    <t>ROK_LandAreaEquippedForIrrigation</t>
+  </si>
+  <si>
+    <t>ROK_IrrigatedAgricultureWaterUseEfficiency</t>
+  </si>
+  <si>
+    <t>ROK_WaterConsumptionCoefficient</t>
+  </si>
+  <si>
+    <t>ROK_TotalDamCapacity</t>
+  </si>
+  <si>
+    <t>ROK_CoalProduction</t>
+  </si>
+  <si>
+    <t>ROK_CoalImport</t>
+  </si>
+  <si>
+    <t>ROK_CrudeOilImport</t>
+  </si>
+  <si>
+    <t>ROK_ElectricityGeneration</t>
+  </si>
+  <si>
+    <t>ROK_RiceImport</t>
+  </si>
+  <si>
+    <t>ROK_WheatImport</t>
+  </si>
+  <si>
+    <t>ROK_SoyImport</t>
+  </si>
+  <si>
+    <t>ROK_MaizeImport</t>
+  </si>
+  <si>
+    <t>ROK_imports</t>
+  </si>
+  <si>
+    <t>ROK_PrevalenceOfUndernourishment</t>
+  </si>
+  <si>
+    <t>ROK_CokeImport</t>
+  </si>
+  <si>
+    <t>DPRK_RiceYield</t>
+  </si>
+  <si>
+    <t>DPRK_LandAreaEquippedForIrrigation</t>
+  </si>
+  <si>
+    <t>DPRK_IrrigatedAgricultureWaterUseEfficiency</t>
+  </si>
+  <si>
+    <t>DPRK_WaterConsumptionCoefficient</t>
+  </si>
+  <si>
+    <t>DPRK_TotalDamCapacity</t>
+  </si>
+  <si>
+    <t>DPRK_CoalProduction</t>
+  </si>
+  <si>
+    <t>DPRK_CoalImport</t>
+  </si>
+  <si>
+    <t>DPRK_CrudeOilImport</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricityGeneration</t>
+  </si>
+  <si>
+    <t>DPRK_RiceImport</t>
+  </si>
+  <si>
+    <t>DPRK_WheatImport</t>
+  </si>
+  <si>
+    <t>DPRK_SoyImport</t>
+  </si>
+  <si>
+    <t>DPRK_MaizeImport</t>
+  </si>
+  <si>
+    <t>DPRK_imports</t>
+  </si>
+  <si>
+    <t>DPRK_FoodReceived_Rice</t>
+  </si>
+  <si>
+    <t>DPRK_FoodReceived_Wheat</t>
+  </si>
+  <si>
+    <t>DPRK_FoodReceived_other_cereals</t>
+  </si>
+  <si>
+    <t>DPRK_FoodReceived_Non_Cereals</t>
+  </si>
+  <si>
+    <t>DPRK_PrevalenceOfUndernourishment</t>
+  </si>
+  <si>
+    <t>DPRK_ProductionN</t>
+  </si>
+  <si>
+    <t>DPRK_ProductionP205</t>
+  </si>
+  <si>
+    <t>DPRK_ProductioDPRK20</t>
+  </si>
+  <si>
+    <t>DPRK_UsePerAreaOfCroplandNutrientNitrogenN</t>
+  </si>
+  <si>
+    <t>DPRK_UsePerAreaOfCroplandNutrientP2O5</t>
+  </si>
+  <si>
+    <t>DPRK_UsePerAreaOfCroplandNutrientK2O</t>
+  </si>
+  <si>
+    <t>DPRK_CokeImport</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricityConsumption</t>
+  </si>
+  <si>
+    <t>DPRK_PrimaryEnergyConsumption</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyCoal</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyHydro</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyBiofuelsAndWaste</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyOil</t>
+  </si>
+  <si>
+    <t>DPRK_EnergySupplyWindAndSolar</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyCoal</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyOil</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplyHydro</t>
+  </si>
+  <si>
+    <t>DPRK_ElectricitySupplySolar</t>
+  </si>
+  <si>
+    <t>Indicator_Code</t>
   </si>
 </sst>
 </file>
@@ -511,28 +498,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,445 +799,445 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15.6">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.399999999999999">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999">
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999">
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.8" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="4" t="s">
+    <row r="43" spans="1:2" ht="15">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999">
+      <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.399999999999999">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.399999999999999">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999">
+      <c r="A46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999">
+      <c r="A47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.399999999999999">
+      <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.399999999999999">
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.399999999999999">
+      <c r="A51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.399999999999999">
+      <c r="A52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.399999999999999">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.399999999999999">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.399999999999999">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.399999999999999">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.399999999999999">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.399999999999999">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.399999999999999">
-      <c r="A15" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.399999999999999">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.399999999999999">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.399999999999999">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.399999999999999">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.399999999999999">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.399999999999999">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.399999999999999">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.399999999999999">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.399999999999999">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.399999999999999">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.399999999999999">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.399999999999999">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.399999999999999">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.399999999999999">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.399999999999999">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.399999999999999">
-      <c r="A31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.399999999999999">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.399999999999999">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.399999999999999">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.399999999999999">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.399999999999999">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.399999999999999">
-      <c r="A44" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.399999999999999">
-      <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.399999999999999">
-      <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.399999999999999">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.399999999999999">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.399999999999999">
-      <c r="A50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.399999999999999">
-      <c r="A51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.399999999999999">
-      <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.399999999999999">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.399999999999999">
-      <c r="A54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Statistics_UnitInfo.xlsx
+++ b/Data_Statistics_UnitInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\4 Figures\Fig. SEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 Drought in Korea\2 Codes\Sanctions-Drought-Korea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4FF902-9004-43B0-9A8F-92EBA23D5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32C2ED-969B-4651-B42B-ED7601C57C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
